--- a/src/main/webapp/templaters/出库单.xlsx
+++ b/src/main/webapp/templaters/出库单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>出库日期</t>
   </si>
@@ -27,6 +27,9 @@
     <t>关联订单号</t>
   </si>
   <si>
+    <t>接收客户</t>
+  </si>
+  <si>
     <t>货号</t>
   </si>
   <si>
@@ -36,6 +39,12 @@
     <t>数量</t>
   </si>
   <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -48,13 +57,13 @@
     <t>111</t>
   </si>
   <si>
+    <t>aaa</t>
+  </si>
+  <si>
     <t>no.001</t>
   </si>
   <si>
     <t>20*20</t>
-  </si>
-  <si>
-    <t>aaa</t>
   </si>
   <si>
     <t>2017-1-2</t>
@@ -112,6 +121,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -127,55 +234,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,62 +251,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,19 +273,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,151 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,15 +491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -511,6 +511,35 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,26 +573,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,24 +1085,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="3" width="14.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="1" customWidth="1"/>
-    <col min="8" max="258" width="14.875" style="1" customWidth="1"/>
-    <col min="259" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="14.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="9" width="17.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.75" style="1" customWidth="1"/>
+    <col min="11" max="261" width="14.875" style="1" customWidth="1"/>
+    <col min="262" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1103,84 +1112,121 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6">
+        <v>100</v>
+      </c>
+      <c r="H2" s="6">
+        <v>100</v>
+      </c>
+      <c r="I2" s="6">
+        <f>G2*H2</f>
+        <v>10000</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6">
+        <v>101</v>
+      </c>
+      <c r="H3" s="6">
         <v>100</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
+      <c r="I3" s="6">
+        <f>G3*H3</f>
+        <v>10100</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
-        <v>101</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>102</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
+      <c r="H4" s="6">
+        <v>100</v>
+      </c>
+      <c r="I4" s="6">
+        <f>G4*H4</f>
+        <v>10200</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
